--- a/Assets/02Script/Manager/StateEffecterManager/StateEffecterSheet.xlsx
+++ b/Assets/02Script/Manager/StateEffecterManager/StateEffecterSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSK\Desktop\UnityGames\RPGGame\Assets\02Script\Model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSK\Desktop\UnityGames\RPGGame\Assets\02Script\Manager\StateEffecterManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543FF155-1628-4B24-843B-38B89EFEE93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB506DE-93A7-4963-8E39-7EA3E67358F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D0EB566E-588B-4A2A-A73B-0D6E8ADAE74D}"/>
+    <workbookView xWindow="3240" yWindow="12405" windowWidth="28800" windowHeight="13305" xr2:uid="{D0EB566E-588B-4A2A-A73B-0D6E8ADAE74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,9 @@
   <si>
     <t>DEF_percent</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3155E9D4-3778-4EF4-949E-3F1E06F0592A}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -721,6 +724,100 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>50</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>-10</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7">
+        <v>-10</v>
+      </c>
+      <c r="N7" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -732,7 +829,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B6</xm:sqref>
+          <xm:sqref>B2:B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Assets/02Script/Manager/StateEffecterManager/StateEffecterSheet.xlsx
+++ b/Assets/02Script/Manager/StateEffecterManager/StateEffecterSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JSK\Desktop\UnityGames\RPGGame\Assets\02Script\Manager\StateEffecterManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\02Script\Manager\StateEffecterManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB506DE-93A7-4963-8E39-7EA3E67358F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA705BD-9397-4051-86B5-945A57EE53A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="12405" windowWidth="28800" windowHeight="13305" xr2:uid="{D0EB566E-588B-4A2A-A73B-0D6E8ADAE74D}"/>
+    <workbookView xWindow="420" yWindow="4995" windowWidth="28800" windowHeight="15435" xr2:uid="{D0EB566E-588B-4A2A-A73B-0D6E8ADAE74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,7 +474,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -594,10 +594,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="E3">
-        <v>-50</v>
+        <v>-20</v>
       </c>
       <c r="F3">
         <v>0</v>

--- a/Assets/02Script/Manager/StateEffecterManager/StateEffecterSheet.xlsx
+++ b/Assets/02Script/Manager/StateEffecterManager/StateEffecterSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jang\Desktop\GitHubGameProject\RPGGame\Assets\02Script\Manager\StateEffecterManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA705BD-9397-4051-86B5-945A57EE53A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4DE3D6-4DAC-436A-9B1B-8F05ADEFDDE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4995" windowWidth="28800" windowHeight="15435" xr2:uid="{D0EB566E-588B-4A2A-A73B-0D6E8ADAE74D}"/>
+    <workbookView xWindow="14250" yWindow="5190" windowWidth="18030" windowHeight="15435" xr2:uid="{D0EB566E-588B-4A2A-A73B-0D6E8ADAE74D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3155E9D4-3778-4EF4-949E-3F1E06F0592A}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -816,6 +816,53 @@
       </c>
       <c r="O7">
         <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -829,7 +876,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
